--- a/output/0/tRNA-Pro-AGG-2-7.xlsx
+++ b/output/0/tRNA-Pro-AGG-2-7.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
   <si>
     <t>chr16</t>
   </si>
@@ -213,60 +213,6 @@
   </si>
   <si>
     <t>63</t>
-  </si>
-  <si>
-    <t>3232934</t>
-  </si>
-  <si>
-    <t>3232957</t>
-  </si>
-  <si>
-    <t>3232937</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>TGAGAGGCGGAGGCGGGCGA</t>
-  </si>
-  <si>
-    <t>32% (44)</t>
-  </si>
-  <si>
-    <t>88% (67)</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 32%, Moreno-Mateos: 88%</t>
-  </si>
-  <si>
-    <t>3232935</t>
-  </si>
-  <si>
-    <t>3232958</t>
-  </si>
-  <si>
-    <t>3232938</t>
-  </si>
-  <si>
-    <t>CTGAGAGGCGGAGGCGGGCG</t>
-  </si>
-  <si>
-    <t>5% (26)</t>
-  </si>
-  <si>
-    <t>96% (79)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 5%, Moreno-Mateos: 96%</t>
   </si>
 </sst>
 </file>
@@ -311,7 +257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -789,124 +735,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>75</v>
-      </c>
-      <c r="R9" t="s">
-        <v>76</v>
-      </c>
-      <c r="S9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" t="s">
-        <v>82</v>
-      </c>
-      <c r="P10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>75</v>
-      </c>
-      <c r="R10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S10" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
